--- a/src/main/resources/template/excel/export/StockReimburse.xlsx
+++ b/src/main/resources/template/excel/export/StockReimburse.xlsx
@@ -34,7 +34,7 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>jx:area(lastCell="K4")</t>
+          <t>jx:area(lastCell="O4")</t>
         </r>
       </text>
     </comment>
@@ -48,7 +48,7 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>jx:each(items="reportList" var="obj" lastCell="K3")</t>
+          <t>jx:each(items="reportList" var="obj" lastCell="O3")</t>
         </r>
       </text>
     </comment>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>货号</t>
   </si>
@@ -121,44 +121,85 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
+    <t>报损单</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>总计：</t>
+  </si>
+  <si>
+    <t>$[SUMPRODUCT(H3:H3:H3+0)]</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>$[SUMPRODUCT(I3:I3:I3+0)]</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>$[SUMPRODUCT(J3:J3:J3+0)]</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>国际条码</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>不含税成本价</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>不含税金额</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>参考税率</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>税额</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>${obj.untaxedPrice}</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>${obj.untaxedAmount}</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>${obj.taxRate}</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>${obj.tax}</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
     <t>${obj.remark}</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>报损单</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>国际条码</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>总计：</t>
-  </si>
-  <si>
-    <t>$[SUMPRODUCT(G3:G3:G3+0)]</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>$[SUMPRODUCT(H3:H3:H3+0)]</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>$[SUMPRODUCT(I3:I3:I3+0)]</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>$[SUMPRODUCT(J3:J3:J3+0)]</t>
+    <t>$[SUMPRODUCT(K3:K3:K3+0)]</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>$[SUMPRODUCT(L3:L3:L3+0)]</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>$[SUMPRODUCT(N3:N3:N3+0)]</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="3">
     <numFmt numFmtId="176" formatCode="0.0000_ ;[Red]\-0.0000\ "/>
     <numFmt numFmtId="177" formatCode="0.0000_ "/>
+    <numFmt numFmtId="178" formatCode="0.00;[Red]0.00"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -266,7 +307,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -284,13 +325,16 @@
     <xf numFmtId="176" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="177" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="177" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -311,7 +355,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -600,7 +644,7 @@
   <dimension ref="A1:EF101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -611,27 +655,31 @@
     <col min="4" max="5" width="10.625" style="3" customWidth="1"/>
     <col min="6" max="10" width="12.625" style="3" customWidth="1"/>
     <col min="11" max="11" width="18.625" style="3" customWidth="1"/>
-    <col min="12" max="16384" width="9" style="3"/>
+    <col min="12" max="12" width="15.875" style="3" customWidth="1"/>
+    <col min="13" max="13" width="9" style="3"/>
+    <col min="14" max="14" width="14.25" style="3" customWidth="1"/>
+    <col min="15" max="15" width="19.625" style="3" customWidth="1"/>
+    <col min="16" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:136" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
+      <c r="A1" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="10"/>
+      <c r="N1" s="10"/>
+      <c r="O1" s="10"/>
       <c r="P1" s="3"/>
       <c r="Q1" s="3"/>
       <c r="R1" s="3"/>
@@ -762,7 +810,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>2</v>
@@ -770,28 +818,36 @@
       <c r="E2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="H2" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="I2" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="J2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="K2" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="L2" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="M2" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="N2" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="O2" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
       <c r="P2" s="3"/>
       <c r="Q2" s="3"/>
       <c r="R2" s="3"/>
@@ -930,47 +986,67 @@
       <c r="E3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="F3" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G3" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="H3" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="H3" s="8" t="s">
+      <c r="I3" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="I3" s="8" t="s">
+      <c r="J3" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="J3" s="8" t="s">
+      <c r="K3" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="L3" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="K3" s="5" t="s">
-        <v>20</v>
+      <c r="M3" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="N3" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="O3" s="5" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:136" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
       <c r="F4" s="6"/>
-      <c r="G4" s="9" t="s">
+      <c r="G4" s="6"/>
+      <c r="H4" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="J4" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="H4" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="I4" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="J4" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="K4" s="6"/>
+      <c r="K4" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="L4" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="M4" s="8"/>
+      <c r="N4" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="O4" s="6"/>
     </row>
     <row r="5" spans="1:136" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="1:136" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1071,7 +1147,7 @@
     <row r="101" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A1:O1"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
